--- a/jobkorea_jobCode DB 데이터.xlsx
+++ b/jobkorea_jobCode DB 데이터.xlsx
@@ -4733,19 +4733,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>codeid</t>
+    <t>jobCatId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>codename</t>
+    <t>jobCatName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Id</t>
+    <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Name</t>
+    <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5125,7 +5125,7 @@
   <dimension ref="A1:K245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5142,16 +5142,16 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="28.5" customHeight="1">
       <c r="A1" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>512</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>513</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>510</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>511</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>0</v>
